--- a/newapp/html_site_AB/TI_API_Brew_info.xlsx
+++ b/newapp/html_site_AB/TI_API_Brew_info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10215" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10215" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t xml:space="preserve">.maindiv </t>
   </si>
@@ -72,15 +72,6 @@
     </r>
   </si>
   <si>
-    <t>padding: 4px;</t>
-  </si>
-  <si>
-    <t>padding: 4px 8px;</t>
-  </si>
-  <si>
-    <t>padding: 10px 16px;</t>
-  </si>
-  <si>
     <t>test-app-2</t>
   </si>
   <si>
@@ -91,13 +82,25 @@
   </si>
   <si>
     <t>?  Flex-center</t>
+  </si>
+  <si>
+    <t>sidesection    Resources</t>
+  </si>
+  <si>
+    <t>Search    -  color?</t>
+  </si>
+  <si>
+    <t>common  view</t>
+  </si>
+  <si>
+    <t>ul ul  'folder1'      .dropdown { color: }</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,11 +117,6 @@
     <font>
       <sz val="24"/>
       <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="24"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -143,10 +141,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -468,46 +465,69 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="53.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="37.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -518,81 +538,66 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:O7"/>
+  <dimension ref="C2:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="9" width="9.140625" style="3"/>
+    <col min="3" max="9" width="9.140625" style="2"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C2" s="3">
-        <v>16</v>
-      </c>
-      <c r="E2" s="3">
-        <v>12</v>
-      </c>
-      <c r="F2" s="3">
-        <v>24</v>
-      </c>
-      <c r="G2" s="3">
-        <v>12</v>
-      </c>
-      <c r="I2" s="3">
-        <v>16</v>
-      </c>
       <c r="O2" s="1">
         <f>SUM(A2:N2)</f>
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C4" s="3">
-        <v>16</v>
-      </c>
-      <c r="D4" s="3">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3">
-        <v>8</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="C4" s="2">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2">
         <v>24</v>
       </c>
-      <c r="G4" s="3">
-        <v>8</v>
-      </c>
-      <c r="H4" s="3">
-        <v>8</v>
-      </c>
-      <c r="I4" s="3">
+      <c r="G4" s="2">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2">
+        <v>8</v>
+      </c>
+      <c r="I4" s="2">
         <v>16</v>
       </c>
       <c r="O4" s="1">
         <f>SUM(A4:N4)</f>
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C5" s="3">
-        <v>16</v>
-      </c>
-      <c r="E5" s="3">
-        <v>8</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="C5" s="2">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2">
         <v>28</v>
       </c>
-      <c r="G5" s="3">
-        <v>8</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="G5" s="2">
+        <v>8</v>
+      </c>
+      <c r="I5" s="2">
         <v>16</v>
       </c>
       <c r="O5" s="1">
@@ -601,19 +606,19 @@
       </c>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C6" s="3">
-        <v>16</v>
-      </c>
-      <c r="E6" s="3">
-        <v>8</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="C6" s="2">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2">
         <v>30</v>
       </c>
-      <c r="G6" s="3">
-        <v>8</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="G6" s="2">
+        <v>8</v>
+      </c>
+      <c r="I6" s="2">
         <v>16</v>
       </c>
       <c r="O6" s="1">
@@ -622,24 +627,72 @@
       </c>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C7" s="3">
-        <v>16</v>
-      </c>
-      <c r="E7" s="3">
-        <v>8</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="C7" s="2">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2">
         <v>32</v>
       </c>
-      <c r="G7" s="3">
-        <v>8</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="G7" s="2">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2">
         <v>16</v>
       </c>
       <c r="O7" s="1">
         <f>SUM(A7:N7)</f>
         <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C9" s="2">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2">
+        <v>24</v>
+      </c>
+      <c r="G9" s="2">
+        <v>8</v>
+      </c>
+      <c r="I9" s="2">
+        <v>16</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" ref="O9:O11" si="0">SUM(A9:N9)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C10" s="2">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2">
+        <v>8</v>
+      </c>
+      <c r="F10" s="2">
+        <v>40</v>
+      </c>
+      <c r="G10" s="2">
+        <v>8</v>
+      </c>
+      <c r="I10" s="2">
+        <v>16</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="O11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/newapp/html_site_AB/TI_API_Brew_info.xlsx
+++ b/newapp/html_site_AB/TI_API_Brew_info.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t xml:space="preserve">.maindiv </t>
   </si>
@@ -72,35 +72,47 @@
     </r>
   </si>
   <si>
-    <t>test-app-2</t>
-  </si>
-  <si>
-    <t>project-f70cca</t>
-  </si>
-  <si>
-    <t>v1.4.25</t>
-  </si>
-  <si>
-    <t>?  Flex-center</t>
-  </si>
-  <si>
     <t>sidesection    Resources</t>
   </si>
   <si>
     <t>Search    -  color?</t>
   </si>
   <si>
-    <t>common  view</t>
-  </si>
-  <si>
-    <t>ul ul  'folder1'      .dropdown { color: }</t>
+    <t xml:space="preserve">ul li </t>
+  </si>
+  <si>
+    <t>.active</t>
+  </si>
+  <si>
+    <t>Resources     +  Add new record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">window.onload = function(e){ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var element = document.getElementById('second');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  element.scrollIntoView({ behavior: 'smooth' });</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>add + scroll  to end</t>
+  </si>
+  <si>
+    <t>box-shadow: 0px 8px 8px -4px #10182808;</t>
+  </si>
+  <si>
+    <t>box-shadow: 0px 20px 24px -4px #10182814;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +129,27 @@
     <font>
       <sz val="24"/>
       <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF00B050"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -141,12 +174,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" x14ac:dyDescent="0.45"/>
@@ -457,6 +493,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -465,10 +533,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" x14ac:dyDescent="0.45"/>
@@ -480,55 +548,71 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="3">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="5">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="1">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="5">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -538,161 +622,89 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:O11"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="9" width="9.140625" style="2"/>
+    <col min="3" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="11" style="2" customWidth="1"/>
+    <col min="7" max="9" width="9.140625" style="2"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="O2" s="1">
-        <f>SUM(A2:N2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C4" s="2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="C1" s="2">
         <v>16</v>
       </c>
+      <c r="D1" s="2">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1">
+        <f>SUM(A1:N1)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="E3" s="2">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2">
+        <v>256</v>
+      </c>
+      <c r="G3" s="2">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" ref="O2:O4" si="0">SUM(A3:N3)</f>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D4" s="2">
         <v>8</v>
       </c>
       <c r="E4" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2">
-        <v>24</v>
+        <v>248</v>
       </c>
       <c r="G4" s="2">
-        <v>4</v>
-      </c>
-      <c r="H4" s="2">
-        <v>8</v>
-      </c>
-      <c r="I4" s="2">
         <v>16</v>
       </c>
       <c r="O4" s="1">
-        <f>SUM(A4:N4)</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C5" s="2">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2">
-        <v>8</v>
-      </c>
-      <c r="F5" s="2">
-        <v>28</v>
-      </c>
-      <c r="G5" s="2">
-        <v>8</v>
-      </c>
-      <c r="I5" s="2">
-        <v>16</v>
-      </c>
-      <c r="O5" s="1">
-        <f>SUM(A5:N5)</f>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C6" s="2">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2">
-        <v>30</v>
-      </c>
-      <c r="G6" s="2">
-        <v>8</v>
-      </c>
-      <c r="I6" s="2">
-        <v>16</v>
-      </c>
-      <c r="O6" s="1">
-        <f>SUM(A6:N6)</f>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C7" s="2">
-        <v>16</v>
-      </c>
-      <c r="E7" s="2">
-        <v>8</v>
-      </c>
-      <c r="F7" s="2">
-        <v>32</v>
-      </c>
-      <c r="G7" s="2">
-        <v>8</v>
-      </c>
-      <c r="I7" s="2">
-        <v>16</v>
-      </c>
-      <c r="O7" s="1">
-        <f>SUM(A7:N7)</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C9" s="2">
-        <v>16</v>
-      </c>
-      <c r="E9" s="2">
-        <v>8</v>
-      </c>
-      <c r="F9" s="2">
-        <v>24</v>
-      </c>
-      <c r="G9" s="2">
-        <v>8</v>
-      </c>
-      <c r="I9" s="2">
-        <v>16</v>
-      </c>
-      <c r="O9" s="1">
-        <f t="shared" ref="O9:O11" si="0">SUM(A9:N9)</f>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C10" s="2">
-        <v>16</v>
-      </c>
-      <c r="E10" s="2">
-        <v>8</v>
-      </c>
-      <c r="F10" s="2">
-        <v>40</v>
-      </c>
-      <c r="G10" s="2">
-        <v>8</v>
-      </c>
-      <c r="I10" s="2">
-        <v>16</v>
-      </c>
-      <c r="O10" s="1">
         <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="O11" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/newapp/html_site_AB/TI_API_Brew_info.xlsx
+++ b/newapp/html_site_AB/TI_API_Brew_info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10215" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10215" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,10 +102,10 @@
     <t>add + scroll  to end</t>
   </si>
   <si>
-    <t>box-shadow: 0px 8px 8px -4px #10182808;</t>
-  </si>
-  <si>
-    <t>box-shadow: 0px 20px 24px -4px #10182814;</t>
+    <t>resource-drawer</t>
+  </si>
+  <si>
+    <t>18-g-s-248</t>
   </si>
 </sst>
 </file>
@@ -463,58 +463,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="35.85546875" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="1">
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B2" s="4"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -522,6 +506,30 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -535,7 +543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -622,10 +630,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" x14ac:dyDescent="0.45"/>
@@ -675,7 +683,7 @@
         <v>16</v>
       </c>
       <c r="O3" s="1">
-        <f t="shared" ref="O2:O4" si="0">SUM(A3:N3)</f>
+        <f t="shared" ref="O3:O4" si="0">SUM(A3:N3)</f>
         <v>280</v>
       </c>
     </row>
@@ -699,11 +707,6 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
